--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mruslanr/PycharmProjects/WAPI_events/latest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A251C63-EEFF-0545-8391-CDED102BB62B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6583272-F52A-D54C-85E2-C804AF8EC1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feeds" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="104">
   <si>
     <t>country_code</t>
   </si>
@@ -220,12 +220,6 @@
     <t>SI</t>
   </si>
   <si>
-    <t>https://zurnal24.si/feeds/latest</t>
-  </si>
-  <si>
-    <t>https://24ur.com/rss</t>
-  </si>
-  <si>
     <t>ES</t>
   </si>
   <si>
@@ -323,9 +317,6 @@
   </si>
   <si>
     <t>https://www.hln.be/home/rss.xml</t>
-  </si>
-  <si>
-    <t>https://www.zurnal24.si/feeds/latest</t>
   </si>
   <si>
     <t>https://www.romania-insider.com/feed</t>
@@ -713,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView zoomScale="108" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -747,7 +738,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -761,7 +752,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -772,7 +763,7 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -786,7 +777,7 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -800,7 +791,7 @@
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -814,7 +805,7 @@
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -839,7 +830,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -850,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -864,7 +855,7 @@
         <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -878,7 +869,7 @@
         <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -889,7 +880,7 @@
         <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -903,7 +894,7 @@
         <v>37</v>
       </c>
       <c r="D14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -914,7 +905,7 @@
         <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -928,7 +919,7 @@
         <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -939,7 +930,7 @@
         <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -953,7 +944,7 @@
         <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -986,7 +977,7 @@
         <v>54</v>
       </c>
       <c r="D21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -1000,7 +991,7 @@
         <v>57</v>
       </c>
       <c r="D22" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1014,7 +1005,7 @@
         <v>60</v>
       </c>
       <c r="D23" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1035,67 +1026,58 @@
       <c r="A25" t="s">
         <v>64</v>
       </c>
-      <c r="B25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" t="s">
-        <v>100</v>
-      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" t="s">
         <v>67</v>
       </c>
-      <c r="B26" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" t="s">
-        <v>69</v>
-      </c>
       <c r="D26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" t="s">
         <v>70</v>
-      </c>
-      <c r="B27" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" t="s">
         <v>73</v>
       </c>
-      <c r="B28" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" t="s">
-        <v>75</v>
-      </c>
       <c r="D28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D29" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1108,7 +1090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="184" workbookViewId="0">
+    <sheetView zoomScale="184" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -1116,7 +1098,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -1198,16 +1180,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1227,16 +1209,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mruslanr/PycharmProjects/WAPI_events/latest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6583272-F52A-D54C-85E2-C804AF8EC1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5AB5B97-A842-204C-805E-BE107BBC48BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="102">
   <si>
     <t>country_code</t>
   </si>
@@ -220,6 +220,12 @@
     <t>SI</t>
   </si>
   <si>
+    <t>https://zurnal24.si/feeds/latest</t>
+  </si>
+  <si>
+    <t>https://24ur.com/rss</t>
+  </si>
+  <si>
     <t>ES</t>
   </si>
   <si>
@@ -307,21 +313,12 @@
     <t>https://hungarytoday.hu/feed/</t>
   </si>
   <si>
-    <t>https://www.rte.ie/feeds/rss/?index=/news/</t>
-  </si>
-  <si>
     <t>https://www.ansa.it/sito/ansait_rss.xml</t>
   </si>
   <si>
     <t>https://wyborcza.pl/pub/rss/najnowsze_wyborcza.xml</t>
   </si>
   <si>
-    <t>https://www.hln.be/home/rss.xml</t>
-  </si>
-  <si>
-    <t>https://www.romania-insider.com/feed</t>
-  </si>
-  <si>
     <t>https://www.portugalresident.com/feed/</t>
   </si>
   <si>
@@ -332,9 +329,6 @@
   </si>
   <si>
     <t>https://www.lrt.lt/?rss</t>
-  </si>
-  <si>
-    <t>https://lequotidien.lu/feed/</t>
   </si>
 </sst>
 </file>
@@ -705,7 +699,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -738,7 +732,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -752,7 +746,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -763,7 +757,7 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -777,7 +771,7 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -791,7 +785,7 @@
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -805,7 +799,7 @@
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -815,9 +809,6 @@
       <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -830,7 +821,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -841,7 +832,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -855,7 +846,7 @@
         <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -869,7 +860,7 @@
         <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -880,7 +871,7 @@
         <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -893,9 +884,6 @@
       <c r="C14" t="s">
         <v>37</v>
       </c>
-      <c r="D14" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -905,7 +893,7 @@
         <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -919,7 +907,7 @@
         <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -930,7 +918,7 @@
         <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -943,9 +931,6 @@
       <c r="C18" t="s">
         <v>47</v>
       </c>
-      <c r="D18" t="s">
-        <v>103</v>
-      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -977,7 +962,7 @@
         <v>54</v>
       </c>
       <c r="D21" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -991,7 +976,7 @@
         <v>57</v>
       </c>
       <c r="D22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1004,9 +989,6 @@
       <c r="C23" t="s">
         <v>60</v>
       </c>
-      <c r="D23" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -1018,66 +1000,63 @@
       <c r="C24" t="s">
         <v>63</v>
       </c>
-      <c r="D24" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>64</v>
       </c>
+      <c r="B25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C26" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D26" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C27" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B28" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C28" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C29" t="s">
-        <v>75</v>
-      </c>
-      <c r="D29" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1098,7 +1077,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -1180,16 +1159,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1209,16 +1188,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mruslanr/PycharmProjects/WAPI_events/latest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5AB5B97-A842-204C-805E-BE107BBC48BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB624F87-5A7B-E548-8131-9E2381959BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="101">
   <si>
     <t>country_code</t>
   </si>
@@ -284,9 +284,6 @@
   </si>
   <si>
     <t>https://www.derstandard.at/rss</t>
-  </si>
-  <si>
-    <t>https://www.vesti.bg/rss</t>
   </si>
   <si>
     <t>https://dnevnik.hr/assets/feed/articles</t>
@@ -699,7 +696,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -745,9 +742,6 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -757,7 +751,7 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -771,7 +765,7 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -785,7 +779,7 @@
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -799,7 +793,7 @@
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -821,7 +815,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -832,7 +826,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -846,7 +840,7 @@
         <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -860,7 +854,7 @@
         <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -871,7 +865,7 @@
         <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -893,7 +887,7 @@
         <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -907,7 +901,7 @@
         <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -918,7 +912,7 @@
         <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -962,7 +956,7 @@
         <v>54</v>
       </c>
       <c r="D21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -976,7 +970,7 @@
         <v>57</v>
       </c>
       <c r="D22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mruslanr/PycharmProjects/WAPI_events/latest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB624F87-5A7B-E548-8131-9E2381959BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8328ABC2-BAF2-3842-BAF3-D1EAD1A185B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="100">
   <si>
     <t>country_code</t>
   </si>
@@ -46,12 +46,6 @@
     <t>BG</t>
   </si>
   <si>
-    <t>https://dnevnik.bg/rss</t>
-  </si>
-  <si>
-    <t>https://bta.bg/bg/rss/free</t>
-  </si>
-  <si>
     <t>HR</t>
   </si>
   <si>
@@ -284,6 +278,9 @@
   </si>
   <si>
     <t>https://www.derstandard.at/rss</t>
+  </si>
+  <si>
+    <t>https://www.vesti.bg/rss</t>
   </si>
   <si>
     <t>https://dnevnik.hr/assets/feed/articles</t>
@@ -696,7 +693,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -729,328 +726,325 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
+      <c r="D3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
       <c r="D6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
       <c r="D7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
         <v>27</v>
       </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
       <c r="D11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
         <v>30</v>
       </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
-      </c>
       <c r="D12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
         <v>35</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
         <v>40</v>
       </c>
-      <c r="B16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" t="s">
-        <v>42</v>
-      </c>
       <c r="D16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
         <v>45</v>
-      </c>
-      <c r="B18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" t="s">
         <v>50</v>
       </c>
-      <c r="B20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" t="s">
-        <v>52</v>
-      </c>
       <c r="D20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" t="s">
         <v>55</v>
       </c>
-      <c r="B22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" t="s">
-        <v>57</v>
-      </c>
       <c r="D22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" t="s">
         <v>58</v>
-      </c>
-      <c r="B23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" t="s">
         <v>61</v>
-      </c>
-      <c r="B24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" t="s">
         <v>64</v>
-      </c>
-      <c r="B25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" t="s">
         <v>67</v>
       </c>
-      <c r="B26" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" t="s">
-        <v>69</v>
-      </c>
       <c r="D26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" t="s">
         <v>70</v>
-      </c>
-      <c r="B27" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" t="s">
         <v>73</v>
-      </c>
-      <c r="B28" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1071,7 +1065,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -1153,16 +1147,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1182,16 +1176,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
